--- a/Fan's project/paper file/阅读论文列表-annotated.xlsx
+++ b/Fan's project/paper file/阅读论文列表-annotated.xlsx
@@ -1,34 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\OneDrive\文档\实体识别大组\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_8988416901CAA9A9B25B31D0788EB9A972E15C10" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{8E886D0A-C3A6-4C46-80E2-D9AC7C69864D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="9690" windowHeight="7515"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="116">
   <si>
     <t>来自主题</t>
   </si>
@@ -45,6 +31,12 @@
     <t>文章链接</t>
   </si>
   <si>
+    <t>是否读过</t>
+  </si>
+  <si>
+    <t>论文笔记</t>
+  </si>
+  <si>
     <t>Introduction for ML</t>
   </si>
   <si>
@@ -93,6 +85,15 @@
     <t>http://www.vldb.org/pvldb/vol11/p2094-dong.pdf</t>
   </si>
   <si>
+    <t>State-of-the-Art ML Models[Das et al., SIGMOD'17]</t>
+  </si>
+  <si>
+    <t>Falcon: Scaling Up Hands-Off Crowdsourced Entity Matching to Build Cloud Services</t>
+  </si>
+  <si>
+    <t>http://delivery.acm.org/10.1145/3040000/3035960/p1431-das.pdf?ip=106.120.213.74&amp;id=3035960&amp;acc=ACTIVE%20SERVICE&amp;key=BF85BBA5741FDC6E%2E68C876273B0CA8EC%2E4D4702B0C3E38B35%2E4D4702B0C3E38B35&amp;__acm__=1567306708_2ce5a1c676a39fc5e2e04d4a897aa655</t>
+  </si>
+  <si>
     <t>Deep Learning Models[Mudgal et al, SIGMOD'18]</t>
   </si>
   <si>
@@ -138,6 +139,9 @@
     <t>https://www.aclweb.org/anthology/P09-1113</t>
   </si>
   <si>
+    <t>review</t>
+  </si>
+  <si>
     <t>Distantly Supervised Extraction-Ceres[Lockard VLDB'18]</t>
   </si>
   <si>
@@ -358,23 +362,19 @@
   </si>
   <si>
     <t>https://arxiv.org/pdf/1801.06750.pdf</t>
-  </si>
-  <si>
-    <t>State-of-the-Art ML Models[Das et al., SIGMOD'17]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://delivery.acm.org/10.1145/3040000/3035960/p1431-das.pdf?ip=106.120.213.74&amp;id=3035960&amp;acc=ACTIVE%20SERVICE&amp;key=BF85BBA5741FDC6E%2E68C876273B0CA8EC%2E4D4702B0C3E38B35%2E4D4702B0C3E38B35&amp;__acm__=1567306708_2ce5a1c676a39fc5e2e04d4a897aa655</t>
-  </si>
-  <si>
-    <t>Falcon: Scaling Up Hands-Off Crowdsourced Entity Matching to Build Cloud Services</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,7 +387,14 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -395,26 +402,147 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,12 +557,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -442,12 +756,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -461,37 +1014,80 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -749,28 +1345,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="35.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="46.1796875" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" customWidth="1"/>
-    <col min="4" max="4" width="36.1796875" customWidth="1"/>
-    <col min="5" max="5" width="32.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="46.1833333333333" customWidth="1"/>
+    <col min="3" max="3" width="15.6333333333333" customWidth="1"/>
+    <col min="4" max="4" width="36.1833333333333" customWidth="1"/>
+    <col min="5" max="5" width="32.8166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -786,547 +1382,565 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4"/>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4"/>
+      <c r="B7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="4"/>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4"/>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="4"/>
+      <c r="B12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="4"/>
+      <c r="B13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4"/>
+      <c r="B14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="4"/>
+      <c r="B15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4"/>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4"/>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4"/>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="4"/>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="4"/>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4"/>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="4"/>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="4"/>
+      <c r="B24" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="4"/>
+      <c r="B25" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="4"/>
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="4"/>
+      <c r="B28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="4"/>
+      <c r="B29" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="4"/>
+      <c r="B30" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="4"/>
+      <c r="B32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="4"/>
+      <c r="B33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="4"/>
+      <c r="B34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="4"/>
+      <c r="B35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="4"/>
+      <c r="B36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="4"/>
+      <c r="B37" t="s">
         <v>110</v>
       </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" t="s">
         <v>112</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E32" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E33" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E34" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E35" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" t="s">
-        <v>101</v>
-      </c>
-      <c r="C36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E36" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E37" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="4"/>
       <c r="B38" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E38" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1337,41 +1951,42 @@
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="A31:A38"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" tooltip="https://towardsml.com/2019/04/09/12-key-lessons-from-ml-researchers-and-practitioners/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="D14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D15" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="D16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="D17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="D18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="D19" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="D20" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="D22" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="D23" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="D24" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="D25" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="D26" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="D28" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="D29" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="D31" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="D32" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="D33" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="D34" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="D35" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="D36" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="D37" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="D38" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="E6" r:id="rId32" xr:uid="{CDCBA12F-B728-4D3A-8FDE-F105F3B3E7F7}"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://towardsml.com/2019/04/09/12-key-lessons-from-ml-researchers-and-practitioners/" tooltip="https://towardsml.com/2019/04/09/12-key-lessons-from-ml-researchers-and-practitioners/"/>
+    <hyperlink ref="D3" r:id="rId2" display="DeepInf: Social Influence Prediction with Deep Learning"/>
+    <hyperlink ref="D4" r:id="rId3" display="A Theory for Record Linkage"/>
+    <hyperlink ref="D5" r:id="rId4" display="Data Integration and Machine Learning: A Natural Synergy"/>
+    <hyperlink ref="D7" r:id="rId5" display="Deep Learning for Entity Matching:A Design Space Exploration "/>
+    <hyperlink ref="D9" r:id="rId6" display="Inferring User Demographics and Social Strategies in Mobile Social Networks"/>
+    <hyperlink ref="D11" r:id="rId7" display="Web-Scale Information Extraction with Vertex"/>
+    <hyperlink ref="D12" r:id="rId8" display="Distant supervision for relation extraction without labeled data"/>
+    <hyperlink ref="D13" r:id="rId9" display="CERES: Distantly Supervised Relation Extraction from the Semi-Structured Web"/>
+    <hyperlink ref="D14" r:id="rId10" display="Fonduer:KnowledgeBaseConstruction fromRichlyFormattedData"/>
+    <hyperlink ref="D15" r:id="rId11" display="Annotating and Searching Web Tables Using Entities, Types and Relationships"/>
+    <hyperlink ref="D16" r:id="rId12" display="On Spectral Clustering: Analysis and an algorithm"/>
+    <hyperlink ref="D17" r:id="rId13" display="On Discriminative vs. Generative classifiers: A comparision of logistic regression and naive Bayes"/>
+    <hyperlink ref="D18" r:id="rId14" display="Fast Dawid-Skene: A Fast Vote Aggregation Scheme for Sentiment Classification"/>
+    <hyperlink ref="D19" r:id="rId15" display="Eficient Subgraph Matching on Billion Node Graphs"/>
+    <hyperlink ref="D20" r:id="rId16" display="A Time Machine for Information: Looking Back to Look Forward"/>
+    <hyperlink ref="D22" r:id="rId17" display="From Data Fusion to Knowledge Fusion"/>
+    <hyperlink ref="D23" r:id="rId18" display="A Deep Learning Approach to Unsupervised Ensemble Learning"/>
+    <hyperlink ref="D24" r:id="rId19" display="Learning Entity and Relation Embeddings for Knowledge Graph Completion"/>
+    <hyperlink ref="D25" r:id="rId20" display="Network Embedding as Matrix Factorization : Unifying DeepWalk,LINE,PTE,and node2vec"/>
+    <hyperlink ref="D26" r:id="rId21" display="SLiMFast: Guaranteed Results for Data Fusion and Source Reliability"/>
+    <hyperlink ref="D28" r:id="rId22" display="Learning From Crowds"/>
+    <hyperlink ref="D29" r:id="rId8" display="Distant supervision for relation extraction without labeled data"/>
+    <hyperlink ref="D31" r:id="rId23" display="Anomaly Detection: A Survey"/>
+    <hyperlink ref="D32" r:id="rId24" display="Data X-Ray: A Diagnostic Tool for Data Errors"/>
+    <hyperlink ref="D33" r:id="rId25" display="MacroBase: Prioritizing Attention in Fast Data"/>
+    <hyperlink ref="D34" r:id="rId26" display="Don’t be SCAREd: Use SCalable Automatic REpairing with Maximal Likelihood and Bounded Changes"/>
+    <hyperlink ref="D35" r:id="rId27" display="ERACER: A Database Approach for Statistical Inference and Data Cleaning"/>
+    <hyperlink ref="D36" r:id="rId28" display="Deep Event Learning boosT-up Approach: DELTA"/>
+    <hyperlink ref="D37" r:id="rId29" display="HoloClean: Holistic Data Repairs with Probabilistic Inference"/>
+    <hyperlink ref="D38" r:id="rId30" display="A Formal Framework for Probabilistic Unclean Databases "/>
+    <hyperlink ref="E6" r:id="rId31" display="http://delivery.acm.org/10.1145/3040000/3035960/p1431-das.pdf?ip=106.120.213.74&amp;id=3035960&amp;acc=ACTIVE%20SERVICE&amp;key=BF85BBA5741FDC6E%2E68C876273B0CA8EC%2E4D4702B0C3E38B35%2E4D4702B0C3E38B35&amp;__acm__=1567306708_2ce5a1c676a39fc5e2e04d4a897aa655"/>
+    <hyperlink ref="G12" r:id="rId32" display="review"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Fan's project/paper file/阅读论文列表-annotated.xlsx
+++ b/Fan's project/paper file/阅读论文列表-annotated.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9690" windowHeight="7515"/>
+    <workbookView windowWidth="16035" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="116">
   <si>
     <t>来自主题</t>
   </si>
@@ -369,12 +369,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,13 +391,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -407,14 +400,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,16 +451,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -445,20 +507,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -473,14 +521,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,56 +534,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -563,19 +556,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,7 +628,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,25 +712,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,109 +730,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,24 +753,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -799,17 +768,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -844,13 +827,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -862,10 +849,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -874,16 +861,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -892,115 +879,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1020,16 +1007,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1353,8 +1340,8 @@
   <sheetPr/>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1570,11 +1557,11 @@
       <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:7">
       <c r="A14" s="4"/>
       <c r="B14" s="7" t="s">
         <v>45</v>
@@ -1582,11 +1569,17 @@
       <c r="C14" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="8" t="s">
         <v>46</v>
       </c>
       <c r="E14" t="s">
         <v>47</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1985,6 +1978,7 @@
     <hyperlink ref="D38" r:id="rId30" display="A Formal Framework for Probabilistic Unclean Databases "/>
     <hyperlink ref="E6" r:id="rId31" display="http://delivery.acm.org/10.1145/3040000/3035960/p1431-das.pdf?ip=106.120.213.74&amp;id=3035960&amp;acc=ACTIVE%20SERVICE&amp;key=BF85BBA5741FDC6E%2E68C876273B0CA8EC%2E4D4702B0C3E38B35%2E4D4702B0C3E38B35&amp;__acm__=1567306708_2ce5a1c676a39fc5e2e04d4a897aa655"/>
     <hyperlink ref="G12" r:id="rId32" display="review"/>
+    <hyperlink ref="G13" r:id="rId33" display="review"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
